--- a/src/WWF_HighRisk/WWFHighRisk_intermediate_edited.xlsx
+++ b/src/WWF_HighRisk/WWFHighRisk_intermediate_edited.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="212">
   <si>
     <t xml:space="preserve">genus</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Shorea</t>
   </si>
   <si>
+    <t xml:space="preserve">spp.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meranti, lauan, lawaan, seraya, balau, bangkirai, Philippine mahogany, Balau / Selangan Batu in Myanmar, Marsolok (S. platyclados) in Indonesia</t>
   </si>
   <si>
@@ -397,9 +400,6 @@
     <t xml:space="preserve">Dipteryx</t>
   </si>
   <si>
-    <t xml:space="preserve">odorata &amp; micrantha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cumarú, Brazilian teak, Almendrillo</t>
   </si>
   <si>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">Tilia</t>
   </si>
   <si>
-    <t xml:space="preserve">amurensis &amp; manshurica</t>
+    <t xml:space="preserve">amurensis</t>
   </si>
   <si>
     <t xml:space="preserve">Amur linden, Manchurian linden</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">Taxus</t>
   </si>
   <si>
-    <t xml:space="preserve">wallichiana, cuspidata, Chinensis</t>
+    <t xml:space="preserve">wallichiana</t>
   </si>
   <si>
     <t xml:space="preserve">Himalayan yew, Japanese yew, Chinese yew</t>
@@ -583,7 +583,7 @@
     <t xml:space="preserve">ebony</t>
   </si>
   <si>
-    <t xml:space="preserve">panamensis, oleifera</t>
+    <t xml:space="preserve">panamensis</t>
   </si>
   <si>
     <t xml:space="preserve">almendro, tonka bean tree</t>
@@ -601,9 +601,6 @@
     <t xml:space="preserve">Guaiacum</t>
   </si>
   <si>
-    <t xml:space="preserve">angustifolia, coulteri, officinale, sanctum, unijugum</t>
-  </si>
-  <si>
     <t xml:space="preserve">sonora guaiacum, lignum-vitae, pockwood, wood of life, tree of life, ironwood</t>
   </si>
   <si>
@@ -637,7 +634,7 @@
     <t xml:space="preserve">Podocarpus </t>
   </si>
   <si>
-    <t xml:space="preserve">neriifolius, parlatorei</t>
+    <t xml:space="preserve">neriifolius</t>
   </si>
   <si>
     <t xml:space="preserve">brown pine, black pine podocarp, Parlatore’s podocarp, yellow wood</t>
@@ -668,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,12 +694,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -767,7 +758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,561 +819,614 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>126</v>
@@ -1391,7 +1435,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,10 +1449,10 @@
         <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,10 +1466,10 @@
         <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,10 +1483,10 @@
         <v>136</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,10 +1500,10 @@
         <v>139</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,7 +1534,7 @@
         <v>147</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1551,7 @@
         <v>147</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +1568,7 @@
         <v>147</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1582,7 @@
         <v>156</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1599,7 @@
         <v>160</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1616,7 @@
         <v>160</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,10 +1630,10 @@
         <v>166</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1650,7 @@
         <v>170</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1667,7 @@
         <v>170</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,6 +1688,9 @@
       <c r="A57" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="B57" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>179</v>
       </c>
@@ -1683,13 +1730,16 @@
       <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>187</v>
@@ -1714,76 +1764,76 @@
         <v>192</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
